--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Efna2-Epha1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Efna2-Epha1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Epha1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.73649188783168</v>
+        <v>2.764764333333333</v>
       </c>
       <c r="H2">
-        <v>2.73649188783168</v>
+        <v>8.294293</v>
       </c>
       <c r="I2">
-        <v>0.2892806755101621</v>
+        <v>0.2621645059246011</v>
       </c>
       <c r="J2">
-        <v>0.2892806755101621</v>
+        <v>0.2621645059246011</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.04112209505118</v>
+        <v>4.497699333333333</v>
       </c>
       <c r="N2">
-        <v>4.04112209505118</v>
+        <v>13.493098</v>
       </c>
       <c r="O2">
-        <v>0.228341658419327</v>
+        <v>0.2265545985397048</v>
       </c>
       <c r="P2">
-        <v>0.228341658419327</v>
+        <v>0.2265545985397048</v>
       </c>
       <c r="Q2">
-        <v>11.05849783084492</v>
+        <v>12.43507869885711</v>
       </c>
       <c r="R2">
-        <v>11.05849783084492</v>
+        <v>111.915708289714</v>
       </c>
       <c r="S2">
-        <v>0.06605482919465361</v>
+        <v>0.05939457439110805</v>
       </c>
       <c r="T2">
-        <v>0.06605482919465361</v>
+        <v>0.05939457439110805</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.73649188783168</v>
+        <v>2.764764333333333</v>
       </c>
       <c r="H3">
-        <v>2.73649188783168</v>
+        <v>8.294293</v>
       </c>
       <c r="I3">
-        <v>0.2892806755101621</v>
+        <v>0.2621645059246011</v>
       </c>
       <c r="J3">
-        <v>0.2892806755101621</v>
+        <v>0.2621645059246011</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.20735301235539</v>
+        <v>7.831039666666666</v>
       </c>
       <c r="N3">
-        <v>7.20735301235539</v>
+        <v>23.493119</v>
       </c>
       <c r="O3">
-        <v>0.4072480120484751</v>
+        <v>0.3944590147859676</v>
       </c>
       <c r="P3">
-        <v>0.4072480120484751</v>
+        <v>0.3944590147859677</v>
       </c>
       <c r="Q3">
-        <v>19.72286305104975</v>
+        <v>21.65097916331856</v>
       </c>
       <c r="R3">
-        <v>19.72286305104975</v>
+        <v>194.858812469867</v>
       </c>
       <c r="S3">
-        <v>0.1178089800255535</v>
+        <v>0.1034131527188681</v>
       </c>
       <c r="T3">
-        <v>0.1178089800255535</v>
+        <v>0.1034131527188681</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.73649188783168</v>
+        <v>2.764764333333333</v>
       </c>
       <c r="H4">
-        <v>2.73649188783168</v>
+        <v>8.294293</v>
       </c>
       <c r="I4">
-        <v>0.2892806755101621</v>
+        <v>0.2621645059246011</v>
       </c>
       <c r="J4">
-        <v>0.2892806755101621</v>
+        <v>0.2621645059246011</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.77307524989406</v>
+        <v>1.804271333333333</v>
       </c>
       <c r="N4">
-        <v>1.77307524989406</v>
+        <v>5.412813999999999</v>
       </c>
       <c r="O4">
-        <v>0.100186763364284</v>
+        <v>0.09088334663693197</v>
       </c>
       <c r="P4">
-        <v>0.100186763364284</v>
+        <v>0.09088334663693197</v>
       </c>
       <c r="Q4">
-        <v>4.852006037850225</v>
+        <v>4.988385030055777</v>
       </c>
       <c r="R4">
-        <v>4.852006037850225</v>
+        <v>44.89546527050199</v>
       </c>
       <c r="S4">
-        <v>0.02898209458319685</v>
+        <v>0.02382638766784552</v>
       </c>
       <c r="T4">
-        <v>0.02898209458319685</v>
+        <v>0.02382638766784552</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.73649188783168</v>
+        <v>2.764764333333333</v>
       </c>
       <c r="H5">
-        <v>2.73649188783168</v>
+        <v>8.294293</v>
       </c>
       <c r="I5">
-        <v>0.2892806755101621</v>
+        <v>0.2621645059246011</v>
       </c>
       <c r="J5">
-        <v>0.2892806755101621</v>
+        <v>0.2621645059246011</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.78536313810312</v>
+        <v>3.220799666666667</v>
       </c>
       <c r="N5">
-        <v>2.78536313810312</v>
+        <v>9.662399000000001</v>
       </c>
       <c r="O5">
-        <v>0.1573856031307246</v>
+        <v>0.1622356056685755</v>
       </c>
       <c r="P5">
-        <v>0.1573856031307246</v>
+        <v>0.1622356056685755</v>
       </c>
       <c r="Q5">
-        <v>7.62212363208458</v>
+        <v>8.904752043211889</v>
       </c>
       <c r="R5">
-        <v>7.62212363208458</v>
+        <v>80.142768388907</v>
       </c>
       <c r="S5">
-        <v>0.04552861358923029</v>
+        <v>0.0425324174034805</v>
       </c>
       <c r="T5">
-        <v>0.04552861358923029</v>
+        <v>0.04253241740348051</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.73649188783168</v>
+        <v>2.764764333333333</v>
       </c>
       <c r="H6">
-        <v>2.73649188783168</v>
+        <v>8.294293</v>
       </c>
       <c r="I6">
-        <v>0.2892806755101621</v>
+        <v>0.2621645059246011</v>
       </c>
       <c r="J6">
-        <v>0.2892806755101621</v>
+        <v>0.2621645059246011</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.89078618421431</v>
+        <v>2.498796666666667</v>
       </c>
       <c r="N6">
-        <v>1.89078618421431</v>
+        <v>7.49639</v>
       </c>
       <c r="O6">
-        <v>0.1068379630371892</v>
+        <v>0.1258674343688201</v>
       </c>
       <c r="P6">
-        <v>0.1068379630371892</v>
+        <v>0.1258674343688201</v>
       </c>
       <c r="Q6">
-        <v>5.174121054726676</v>
+        <v>6.908583900252222</v>
       </c>
       <c r="R6">
-        <v>5.174121054726676</v>
+        <v>62.17725510227</v>
       </c>
       <c r="S6">
-        <v>0.03090615811752783</v>
+        <v>0.03299797374329887</v>
       </c>
       <c r="T6">
-        <v>0.03090615811752783</v>
+        <v>0.03299797374329887</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.89473477325209</v>
+        <v>5.925454666666667</v>
       </c>
       <c r="H7">
-        <v>5.89473477325209</v>
+        <v>17.776364</v>
       </c>
       <c r="I7">
-        <v>0.6231455918953174</v>
+        <v>0.5618720830329801</v>
       </c>
       <c r="J7">
-        <v>0.6231455918953174</v>
+        <v>0.56187208303298</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.04112209505118</v>
+        <v>4.497699333333333</v>
       </c>
       <c r="N7">
-        <v>4.04112209505118</v>
+        <v>13.493098</v>
       </c>
       <c r="O7">
-        <v>0.228341658419327</v>
+        <v>0.2265545985397048</v>
       </c>
       <c r="P7">
-        <v>0.228341658419327</v>
+        <v>0.2265545985397048</v>
       </c>
       <c r="Q7">
-        <v>23.82134293665553</v>
+        <v>26.65091350396356</v>
       </c>
       <c r="R7">
-        <v>23.82134293665553</v>
+        <v>239.858221535672</v>
       </c>
       <c r="S7">
-        <v>0.1422900978900699</v>
+        <v>0.1272947042022045</v>
       </c>
       <c r="T7">
-        <v>0.1422900978900699</v>
+        <v>0.1272947042022045</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.89473477325209</v>
+        <v>5.925454666666667</v>
       </c>
       <c r="H8">
-        <v>5.89473477325209</v>
+        <v>17.776364</v>
       </c>
       <c r="I8">
-        <v>0.6231455918953174</v>
+        <v>0.5618720830329801</v>
       </c>
       <c r="J8">
-        <v>0.6231455918953174</v>
+        <v>0.56187208303298</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.20735301235539</v>
+        <v>7.831039666666666</v>
       </c>
       <c r="N8">
-        <v>7.20735301235539</v>
+        <v>23.493119</v>
       </c>
       <c r="O8">
-        <v>0.4072480120484751</v>
+        <v>0.3944590147859676</v>
       </c>
       <c r="P8">
-        <v>0.4072480120484751</v>
+        <v>0.3944590147859677</v>
       </c>
       <c r="Q8">
-        <v>42.48543442503451</v>
+        <v>46.40247053770178</v>
       </c>
       <c r="R8">
-        <v>42.48543442503451</v>
+        <v>417.622234839316</v>
       </c>
       <c r="S8">
-        <v>0.2537748035161383</v>
+        <v>0.2216355083089287</v>
       </c>
       <c r="T8">
-        <v>0.2537748035161383</v>
+        <v>0.2216355083089287</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.89473477325209</v>
+        <v>5.925454666666667</v>
       </c>
       <c r="H9">
-        <v>5.89473477325209</v>
+        <v>17.776364</v>
       </c>
       <c r="I9">
-        <v>0.6231455918953174</v>
+        <v>0.5618720830329801</v>
       </c>
       <c r="J9">
-        <v>0.6231455918953174</v>
+        <v>0.56187208303298</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.77307524989406</v>
+        <v>1.804271333333333</v>
       </c>
       <c r="N9">
-        <v>1.77307524989406</v>
+        <v>5.412813999999999</v>
       </c>
       <c r="O9">
-        <v>0.100186763364284</v>
+        <v>0.09088334663693197</v>
       </c>
       <c r="P9">
-        <v>0.100186763364284</v>
+        <v>0.09088334663693197</v>
       </c>
       <c r="Q9">
-        <v>10.45180833114315</v>
+        <v>10.69112799203289</v>
       </c>
       <c r="R9">
-        <v>10.45180833114315</v>
+        <v>96.22015192829599</v>
       </c>
       <c r="S9">
-        <v>0.06243093995671287</v>
+        <v>0.05106481528790135</v>
       </c>
       <c r="T9">
-        <v>0.06243093995671287</v>
+        <v>0.05106481528790134</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.89473477325209</v>
+        <v>5.925454666666667</v>
       </c>
       <c r="H10">
-        <v>5.89473477325209</v>
+        <v>17.776364</v>
       </c>
       <c r="I10">
-        <v>0.6231455918953174</v>
+        <v>0.5618720830329801</v>
       </c>
       <c r="J10">
-        <v>0.6231455918953174</v>
+        <v>0.56187208303298</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.78536313810312</v>
+        <v>3.220799666666667</v>
       </c>
       <c r="N10">
-        <v>2.78536313810312</v>
+        <v>9.662399000000001</v>
       </c>
       <c r="O10">
-        <v>0.1573856031307246</v>
+        <v>0.1622356056685755</v>
       </c>
       <c r="P10">
-        <v>0.1573856031307246</v>
+        <v>0.1622356056685755</v>
       </c>
       <c r="Q10">
-        <v>16.41897694631102</v>
+        <v>19.08470241524845</v>
       </c>
       <c r="R10">
-        <v>16.41897694631102</v>
+        <v>171.762321737236</v>
       </c>
       <c r="S10">
-        <v>0.09807414481869689</v>
+        <v>0.09115565769911967</v>
       </c>
       <c r="T10">
-        <v>0.09807414481869689</v>
+        <v>0.09115565769911967</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.89473477325209</v>
+        <v>5.925454666666667</v>
       </c>
       <c r="H11">
-        <v>5.89473477325209</v>
+        <v>17.776364</v>
       </c>
       <c r="I11">
-        <v>0.6231455918953174</v>
+        <v>0.5618720830329801</v>
       </c>
       <c r="J11">
-        <v>0.6231455918953174</v>
+        <v>0.56187208303298</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.89078618421431</v>
+        <v>2.498796666666667</v>
       </c>
       <c r="N11">
-        <v>1.89078618421431</v>
+        <v>7.49639</v>
       </c>
       <c r="O11">
-        <v>0.1068379630371892</v>
+        <v>0.1258674343688201</v>
       </c>
       <c r="P11">
-        <v>0.1068379630371892</v>
+        <v>0.1258674343688201</v>
       </c>
       <c r="Q11">
-        <v>11.14568306887272</v>
+        <v>14.80650636955111</v>
       </c>
       <c r="R11">
-        <v>11.14568306887272</v>
+        <v>133.25855732596</v>
       </c>
       <c r="S11">
-        <v>0.06657560571369932</v>
+        <v>0.07072139753482586</v>
       </c>
       <c r="T11">
-        <v>0.06657560571369932</v>
+        <v>0.07072139753482584</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.82841623765369</v>
+        <v>0.3772583333333333</v>
       </c>
       <c r="H12">
-        <v>0.82841623765369</v>
+        <v>1.131775</v>
       </c>
       <c r="I12">
-        <v>0.08757373259452061</v>
+        <v>0.03577293853651124</v>
       </c>
       <c r="J12">
-        <v>0.08757373259452061</v>
+        <v>0.03577293853651123</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.04112209505118</v>
+        <v>4.497699333333333</v>
       </c>
       <c r="N12">
-        <v>4.04112209505118</v>
+        <v>13.493098</v>
       </c>
       <c r="O12">
-        <v>0.228341658419327</v>
+        <v>0.2265545985397048</v>
       </c>
       <c r="P12">
-        <v>0.228341658419327</v>
+        <v>0.2265545985397048</v>
       </c>
       <c r="Q12">
-        <v>3.347731161881496</v>
+        <v>1.696794554327778</v>
       </c>
       <c r="R12">
-        <v>3.347731161881496</v>
+        <v>15.27115098895</v>
       </c>
       <c r="S12">
-        <v>0.01999673133460351</v>
+        <v>0.008104523728724836</v>
       </c>
       <c r="T12">
-        <v>0.01999673133460351</v>
+        <v>0.008104523728724836</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.82841623765369</v>
+        <v>0.3772583333333333</v>
       </c>
       <c r="H13">
-        <v>0.82841623765369</v>
+        <v>1.131775</v>
       </c>
       <c r="I13">
-        <v>0.08757373259452061</v>
+        <v>0.03577293853651124</v>
       </c>
       <c r="J13">
-        <v>0.08757373259452061</v>
+        <v>0.03577293853651123</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.20735301235539</v>
+        <v>7.831039666666666</v>
       </c>
       <c r="N13">
-        <v>7.20735301235539</v>
+        <v>23.493119</v>
       </c>
       <c r="O13">
-        <v>0.4072480120484751</v>
+        <v>0.3944590147859676</v>
       </c>
       <c r="P13">
-        <v>0.4072480120484751</v>
+        <v>0.3944590147859677</v>
       </c>
       <c r="Q13">
-        <v>5.970688265937441</v>
+        <v>2.954324972913889</v>
       </c>
       <c r="R13">
-        <v>5.970688265937441</v>
+        <v>26.588924756225</v>
       </c>
       <c r="S13">
-        <v>0.03566422850678327</v>
+        <v>0.0141109580911112</v>
       </c>
       <c r="T13">
-        <v>0.03566422850678327</v>
+        <v>0.0141109580911112</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.82841623765369</v>
+        <v>0.3772583333333333</v>
       </c>
       <c r="H14">
-        <v>0.82841623765369</v>
+        <v>1.131775</v>
       </c>
       <c r="I14">
-        <v>0.08757373259452061</v>
+        <v>0.03577293853651124</v>
       </c>
       <c r="J14">
-        <v>0.08757373259452061</v>
+        <v>0.03577293853651123</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.77307524989406</v>
+        <v>1.804271333333333</v>
       </c>
       <c r="N14">
-        <v>1.77307524989406</v>
+        <v>5.412813999999999</v>
       </c>
       <c r="O14">
-        <v>0.100186763364284</v>
+        <v>0.09088334663693197</v>
       </c>
       <c r="P14">
-        <v>0.100186763364284</v>
+        <v>0.09088334663693197</v>
       </c>
       <c r="Q14">
-        <v>1.468844327594113</v>
+        <v>0.6806763960944443</v>
       </c>
       <c r="R14">
-        <v>1.468844327594113</v>
+        <v>6.126087564849999</v>
       </c>
       <c r="S14">
-        <v>0.008773728824374324</v>
+        <v>0.003251164373235413</v>
       </c>
       <c r="T14">
-        <v>0.008773728824374324</v>
+        <v>0.003251164373235412</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.82841623765369</v>
+        <v>0.3772583333333333</v>
       </c>
       <c r="H15">
-        <v>0.82841623765369</v>
+        <v>1.131775</v>
       </c>
       <c r="I15">
-        <v>0.08757373259452061</v>
+        <v>0.03577293853651124</v>
       </c>
       <c r="J15">
-        <v>0.08757373259452061</v>
+        <v>0.03577293853651123</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.78536313810312</v>
+        <v>3.220799666666667</v>
       </c>
       <c r="N15">
-        <v>2.78536313810312</v>
+        <v>9.662399000000001</v>
       </c>
       <c r="O15">
-        <v>0.1573856031307246</v>
+        <v>0.1622356056685755</v>
       </c>
       <c r="P15">
-        <v>0.1573856031307246</v>
+        <v>0.1622356056685755</v>
       </c>
       <c r="Q15">
-        <v>2.307440051366662</v>
+        <v>1.215073514247222</v>
       </c>
       <c r="R15">
-        <v>2.307440051366662</v>
+        <v>10.935661628225</v>
       </c>
       <c r="S15">
-        <v>0.01378284472279742</v>
+        <v>0.005803644350015625</v>
       </c>
       <c r="T15">
-        <v>0.01378284472279742</v>
+        <v>0.005803644350015625</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.3772583333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.131775</v>
+      </c>
+      <c r="I16">
+        <v>0.03577293853651124</v>
+      </c>
+      <c r="J16">
+        <v>0.03577293853651123</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.498796666666667</v>
+      </c>
+      <c r="N16">
+        <v>7.49639</v>
+      </c>
+      <c r="O16">
+        <v>0.1258674343688201</v>
+      </c>
+      <c r="P16">
+        <v>0.1258674343688201</v>
+      </c>
+      <c r="Q16">
+        <v>0.9426918658055555</v>
+      </c>
+      <c r="R16">
+        <v>8.48422679225</v>
+      </c>
+      <c r="S16">
+        <v>0.004502647993424163</v>
+      </c>
+      <c r="T16">
+        <v>0.004502647993424162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.587637</v>
+      </c>
+      <c r="H17">
+        <v>1.762911</v>
+      </c>
+      <c r="I17">
+        <v>0.05572177053596303</v>
+      </c>
+      <c r="J17">
+        <v>0.05572177053596302</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>4.497699333333333</v>
+      </c>
+      <c r="N17">
+        <v>13.493098</v>
+      </c>
+      <c r="O17">
+        <v>0.2265545985397048</v>
+      </c>
+      <c r="P17">
+        <v>0.2265545985397048</v>
+      </c>
+      <c r="Q17">
+        <v>2.643014543142</v>
+      </c>
+      <c r="R17">
+        <v>23.787130888278</v>
+      </c>
+      <c r="S17">
+        <v>0.01262402335369665</v>
+      </c>
+      <c r="T17">
+        <v>0.01262402335369665</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.587637</v>
+      </c>
+      <c r="H18">
+        <v>1.762911</v>
+      </c>
+      <c r="I18">
+        <v>0.05572177053596303</v>
+      </c>
+      <c r="J18">
+        <v>0.05572177053596302</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>7.831039666666666</v>
+      </c>
+      <c r="N18">
+        <v>23.493119</v>
+      </c>
+      <c r="O18">
+        <v>0.3944590147859676</v>
+      </c>
+      <c r="P18">
+        <v>0.3944590147859677</v>
+      </c>
+      <c r="Q18">
+        <v>4.601808656600999</v>
+      </c>
+      <c r="R18">
+        <v>41.416277909409</v>
+      </c>
+      <c r="S18">
+        <v>0.02197995470774574</v>
+      </c>
+      <c r="T18">
+        <v>0.02197995470774574</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.587637</v>
+      </c>
+      <c r="H19">
+        <v>1.762911</v>
+      </c>
+      <c r="I19">
+        <v>0.05572177053596303</v>
+      </c>
+      <c r="J19">
+        <v>0.05572177053596302</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.804271333333333</v>
+      </c>
+      <c r="N19">
+        <v>5.412813999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.09088334663693197</v>
+      </c>
+      <c r="P19">
+        <v>0.09088334663693197</v>
+      </c>
+      <c r="Q19">
+        <v>1.060256593506</v>
+      </c>
+      <c r="R19">
+        <v>9.542309341553997</v>
+      </c>
+      <c r="S19">
+        <v>0.00506418098684351</v>
+      </c>
+      <c r="T19">
+        <v>0.005064180986843509</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.587637</v>
+      </c>
+      <c r="H20">
+        <v>1.762911</v>
+      </c>
+      <c r="I20">
+        <v>0.05572177053596303</v>
+      </c>
+      <c r="J20">
+        <v>0.05572177053596302</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>3.220799666666667</v>
+      </c>
+      <c r="N20">
+        <v>9.662399000000001</v>
+      </c>
+      <c r="O20">
+        <v>0.1622356056685755</v>
+      </c>
+      <c r="P20">
+        <v>0.1622356056685755</v>
+      </c>
+      <c r="Q20">
+        <v>1.892661053721</v>
+      </c>
+      <c r="R20">
+        <v>17.033949483489</v>
+      </c>
+      <c r="S20">
+        <v>0.009040055191827347</v>
+      </c>
+      <c r="T20">
+        <v>0.009040055191827347</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.587637</v>
+      </c>
+      <c r="H21">
+        <v>1.762911</v>
+      </c>
+      <c r="I21">
+        <v>0.05572177053596303</v>
+      </c>
+      <c r="J21">
+        <v>0.05572177053596302</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.498796666666667</v>
+      </c>
+      <c r="N21">
+        <v>7.49639</v>
+      </c>
+      <c r="O21">
+        <v>0.1258674343688201</v>
+      </c>
+      <c r="P21">
+        <v>0.1258674343688201</v>
+      </c>
+      <c r="Q21">
+        <v>1.46838537681</v>
+      </c>
+      <c r="R21">
+        <v>13.21546839129</v>
+      </c>
+      <c r="S21">
+        <v>0.007013556295849779</v>
+      </c>
+      <c r="T21">
+        <v>0.007013556295849778</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.8907996666666668</v>
+      </c>
+      <c r="H22">
+        <v>2.672399</v>
+      </c>
+      <c r="I22">
+        <v>0.08446870196994465</v>
+      </c>
+      <c r="J22">
+        <v>0.08446870196994463</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>4.497699333333333</v>
+      </c>
+      <c r="N22">
+        <v>13.493098</v>
+      </c>
+      <c r="O22">
+        <v>0.2265545985397048</v>
+      </c>
+      <c r="P22">
+        <v>0.2265545985397048</v>
+      </c>
+      <c r="Q22">
+        <v>4.006549066900223</v>
+      </c>
+      <c r="R22">
+        <v>36.058941602102</v>
+      </c>
+      <c r="S22">
+        <v>0.01913677286397078</v>
+      </c>
+      <c r="T22">
+        <v>0.01913677286397078</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.8907996666666668</v>
+      </c>
+      <c r="H23">
+        <v>2.672399</v>
+      </c>
+      <c r="I23">
+        <v>0.08446870196994465</v>
+      </c>
+      <c r="J23">
+        <v>0.08446870196994463</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>7.831039666666666</v>
+      </c>
+      <c r="N23">
+        <v>23.493119</v>
+      </c>
+      <c r="O23">
+        <v>0.3944590147859676</v>
+      </c>
+      <c r="P23">
+        <v>0.3944590147859677</v>
+      </c>
+      <c r="Q23">
+        <v>6.975887524720112</v>
+      </c>
+      <c r="R23">
+        <v>62.78298772248101</v>
+      </c>
+      <c r="S23">
+        <v>0.03331944095931388</v>
+      </c>
+      <c r="T23">
+        <v>0.03331944095931389</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.82841623765369</v>
-      </c>
-      <c r="H16">
-        <v>0.82841623765369</v>
-      </c>
-      <c r="I16">
-        <v>0.08757373259452061</v>
-      </c>
-      <c r="J16">
-        <v>0.08757373259452061</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1.89078618421431</v>
-      </c>
-      <c r="N16">
-        <v>1.89078618421431</v>
-      </c>
-      <c r="O16">
-        <v>0.1068379630371892</v>
-      </c>
-      <c r="P16">
-        <v>0.1068379630371892</v>
-      </c>
-      <c r="Q16">
-        <v>1.566357976934396</v>
-      </c>
-      <c r="R16">
-        <v>1.566357976934396</v>
-      </c>
-      <c r="S16">
-        <v>0.009356199205962087</v>
-      </c>
-      <c r="T16">
-        <v>0.009356199205962087</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.8907996666666668</v>
+      </c>
+      <c r="H24">
+        <v>2.672399</v>
+      </c>
+      <c r="I24">
+        <v>0.08446870196994465</v>
+      </c>
+      <c r="J24">
+        <v>0.08446870196994463</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.804271333333333</v>
+      </c>
+      <c r="N24">
+        <v>5.412813999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.09088334663693197</v>
+      </c>
+      <c r="P24">
+        <v>0.09088334663693197</v>
+      </c>
+      <c r="Q24">
+        <v>1.607244302309556</v>
+      </c>
+      <c r="R24">
+        <v>14.465198720786</v>
+      </c>
+      <c r="S24">
+        <v>0.007676798321106178</v>
+      </c>
+      <c r="T24">
+        <v>0.007676798321106177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.8907996666666668</v>
+      </c>
+      <c r="H25">
+        <v>2.672399</v>
+      </c>
+      <c r="I25">
+        <v>0.08446870196994465</v>
+      </c>
+      <c r="J25">
+        <v>0.08446870196994463</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>3.220799666666667</v>
+      </c>
+      <c r="N25">
+        <v>9.662399000000001</v>
+      </c>
+      <c r="O25">
+        <v>0.1622356056685755</v>
+      </c>
+      <c r="P25">
+        <v>0.1622356056685755</v>
+      </c>
+      <c r="Q25">
+        <v>2.869087269466778</v>
+      </c>
+      <c r="R25">
+        <v>25.82178542520101</v>
+      </c>
+      <c r="S25">
+        <v>0.01370383102413237</v>
+      </c>
+      <c r="T25">
+        <v>0.01370383102413237</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.8907996666666668</v>
+      </c>
+      <c r="H26">
+        <v>2.672399</v>
+      </c>
+      <c r="I26">
+        <v>0.08446870196994465</v>
+      </c>
+      <c r="J26">
+        <v>0.08446870196994463</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.498796666666667</v>
+      </c>
+      <c r="N26">
+        <v>7.49639</v>
+      </c>
+      <c r="O26">
+        <v>0.1258674343688201</v>
+      </c>
+      <c r="P26">
+        <v>0.1258674343688201</v>
+      </c>
+      <c r="Q26">
+        <v>2.225927237734445</v>
+      </c>
+      <c r="R26">
+        <v>20.03334513961</v>
+      </c>
+      <c r="S26">
+        <v>0.01063185880142143</v>
+      </c>
+      <c r="T26">
+        <v>0.01063185880142143</v>
       </c>
     </row>
   </sheetData>
